--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/HistoryHolidayReport.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/HistoryHolidayReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>{{date}}元旦期间各在建项目带班生产动态</t>
-  </si>
-  <si>
-    <t>{{titileProjectShiftProductionInfo}}</t>
   </si>
   <si>
     <t>序号</t>
@@ -186,14 +183,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -820,13 +817,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1160,13 +1157,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
@@ -1201,203 +1198,185 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" customFormat="1" ht="14.25" spans="1:13">
+    <row r="2" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:14">
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
+    <row r="5" s="2" customFormat="1" ht="18.75" spans="1:13">
+      <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="18.75" spans="1:13">
+    <row r="6" ht="14.25" spans="1:13">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
-    <row r="7" ht="14.25" spans="1:13">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="42.75" customHeight="1" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" ht="42.75" customHeight="1" spans="1:14">
-      <c r="A8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+    <row r="8" spans="1:14">
+      <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A5:M5"/>
     <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
